--- a/biology/Botanique/Gustave_Coquebert_de_Montbret/Gustave_Coquebert_de_Montbret.xlsx
+++ b/biology/Botanique/Gustave_Coquebert_de_Montbret/Gustave_Coquebert_de_Montbret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gustave Auguste de Coquebert de Montbret, né à Reims le 31 mars 1804[1] et mort le 8 juillet 1836 à Ivry-sur-Seine[2], est un botaniste et explorateur français, spécialiste des Lamiaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustave Auguste de Coquebert de Montbret, né à Reims le 31 mars 1804 et mort le 8 juillet 1836 à Ivry-sur-Seine, est un botaniste et explorateur français, spécialiste des Lamiaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'Antoine-Jean Coquebert de Montbret, magistrat, qui a toujours consacré son temps libre à l'étude de l'histoire naturelle et neveu de Charles Coquebert de Montbret, il voyage dans le sud de la France, les Alpes et les Pyrénées pour y étudier la botanique[3].
-Il fait ses études à Orléans puis à Paris et, en 1830, est à Istanbul où il collecte et étudie les plantes de l'Asie Mineure, la Turquie, l'Arménie et l'Égypte. Avec Rémi Aucher-Éloy, qu'il a rencontré à Alexandrie[4], il visite la Syrie et, par la vallée de l'Euphrate et Erzeroum, parcourt l'Asie Mineure d'Alep à Trébizonde. Vingt-huit espèces nouvelles sont alors découvertes. Il revient en France en 1834 par la Serbie, la Hongrie et l'Allemagne mais, alors en préparation d'un nouveau périple, meurt d'une maladie foudroyante[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Antoine-Jean Coquebert de Montbret, magistrat, qui a toujours consacré son temps libre à l'étude de l'histoire naturelle et neveu de Charles Coquebert de Montbret, il voyage dans le sud de la France, les Alpes et les Pyrénées pour y étudier la botanique.
+Il fait ses études à Orléans puis à Paris et, en 1830, est à Istanbul où il collecte et étudie les plantes de l'Asie Mineure, la Turquie, l'Arménie et l'Égypte. Avec Rémi Aucher-Éloy, qu'il a rencontré à Alexandrie, il visite la Syrie et, par la vallée de l'Euphrate et Erzeroum, parcourt l'Asie Mineure d'Alep à Trébizonde. Vingt-huit espèces nouvelles sont alors découvertes. Il revient en France en 1834 par la Serbie, la Hongrie et l'Allemagne mais, alors en préparation d'un nouveau périple, meurt d'une maladie foudroyante.
 </t>
         </is>
       </c>
